--- a/work_hours.xlsx
+++ b/work_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Projects\pharmavens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8E45E7-F2AE-4D8F-B5F1-9FC0D62F38A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A1C29-C520-4E85-A64C-FB3313247240}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>23/06</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>24/06</t>
+  </si>
+  <si>
+    <t>2PM</t>
+  </si>
+  <si>
+    <t>11:35:00 AM to 10 PM</t>
+  </si>
+  <si>
+    <t>Gestion des utilisateurs (ajout)</t>
   </si>
 </sst>
 </file>
@@ -361,13 +373,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -377,16 +390,19 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.91666666666666663</v>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -394,6 +410,9 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
